--- a/Code/Results/Cases/Case_0_225/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_225/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.14513942391438</v>
+        <v>4.915919409345647</v>
       </c>
       <c r="D2">
-        <v>7.760995507182779</v>
+        <v>9.169527626918649</v>
       </c>
       <c r="E2">
-        <v>11.16901569153861</v>
+        <v>13.68066547526212</v>
       </c>
       <c r="F2">
-        <v>22.23176760977276</v>
+        <v>33.0841991395868</v>
       </c>
       <c r="G2">
-        <v>2.080286998667237</v>
+        <v>3.657129963734116</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.337666388389867</v>
+        <v>9.941241086588521</v>
       </c>
       <c r="K2">
-        <v>24.67888297628283</v>
+        <v>17.73700119242937</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.06813292469627</v>
+        <v>24.95574771454122</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.646322006881884</v>
+        <v>4.750707899966622</v>
       </c>
       <c r="D3">
-        <v>7.37847478062579</v>
+        <v>9.092012421453571</v>
       </c>
       <c r="E3">
-        <v>10.6754944325196</v>
+        <v>13.61042338607188</v>
       </c>
       <c r="F3">
-        <v>21.88007241964141</v>
+        <v>33.21547950151452</v>
       </c>
       <c r="G3">
-        <v>2.087367561058253</v>
+        <v>3.659708854907774</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.230609789515203</v>
+        <v>9.951379488853087</v>
       </c>
       <c r="K3">
-        <v>23.04588424786965</v>
+        <v>17.08162149285088</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.11374879180886</v>
+        <v>25.10830927973124</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.323404231068079</v>
+        <v>4.647826968361152</v>
       </c>
       <c r="D4">
-        <v>7.135719518130824</v>
+        <v>9.045122793239628</v>
       </c>
       <c r="E4">
-        <v>10.36719622621687</v>
+        <v>13.56977425430711</v>
       </c>
       <c r="F4">
-        <v>21.69758845767094</v>
+        <v>33.30735863069133</v>
       </c>
       <c r="G4">
-        <v>2.091829330058585</v>
+        <v>3.661373982513858</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.168185982269674</v>
+        <v>9.959316335422155</v>
       </c>
       <c r="K4">
-        <v>21.98542073766517</v>
+        <v>16.66660771826491</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.16952346240906</v>
+        <v>25.20997124965395</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.187585270933175</v>
+        <v>4.605615247610249</v>
       </c>
       <c r="D5">
-        <v>7.034915330152989</v>
+        <v>9.026207434453118</v>
       </c>
       <c r="E5">
-        <v>10.24039832310052</v>
+        <v>13.55384539326437</v>
       </c>
       <c r="F5">
-        <v>21.63138540185741</v>
+        <v>33.34761792905387</v>
       </c>
       <c r="G5">
-        <v>2.093677406559157</v>
+        <v>3.662073143693813</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.143581771431037</v>
+        <v>9.962980967987116</v>
       </c>
       <c r="K5">
-        <v>21.53866039026941</v>
+        <v>16.49454223247431</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.19879634408884</v>
+        <v>25.25339847164798</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.164776093635049</v>
+        <v>4.598591005012123</v>
       </c>
       <c r="D6">
-        <v>7.01806676572943</v>
+        <v>9.023078622180794</v>
       </c>
       <c r="E6">
-        <v>10.21927853490539</v>
+        <v>13.55123917612368</v>
       </c>
       <c r="F6">
-        <v>21.620877223082</v>
+        <v>33.35447264213537</v>
       </c>
       <c r="G6">
-        <v>2.093986114213126</v>
+        <v>3.662190485601744</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.139546656864308</v>
+        <v>9.963615460262547</v>
       </c>
       <c r="K6">
-        <v>21.46359146439898</v>
+        <v>16.46580017710194</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.20403960622329</v>
+        <v>25.26072999165884</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.321589700965453</v>
+        <v>4.647258744366158</v>
       </c>
       <c r="D7">
-        <v>7.134367496340975</v>
+        <v>9.044866894563441</v>
       </c>
       <c r="E7">
-        <v>10.36549066610907</v>
+        <v>13.56955684124521</v>
       </c>
       <c r="F7">
-        <v>21.69666293851599</v>
+        <v>33.30789019514409</v>
       </c>
       <c r="G7">
-        <v>2.091854131471558</v>
+        <v>3.661383328112728</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.167850783084662</v>
+        <v>9.959364015936201</v>
       </c>
       <c r="K7">
-        <v>21.97945483667656</v>
+        <v>16.66429878596729</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.16989232552217</v>
+        <v>25.21054884266686</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.976575088578881</v>
+        <v>4.859296850483752</v>
       </c>
       <c r="D8">
-        <v>7.630795327137792</v>
+        <v>9.142663307536976</v>
       </c>
       <c r="E8">
-        <v>11.00003430444906</v>
+        <v>13.65593903580909</v>
       </c>
       <c r="F8">
-        <v>22.10341817032457</v>
+        <v>33.12711512788927</v>
       </c>
       <c r="G8">
-        <v>2.082705363198954</v>
+        <v>3.658002255119725</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.300067867007932</v>
+        <v>9.944381456768554</v>
       </c>
       <c r="K8">
-        <v>24.12776938067529</v>
+        <v>17.51377135775846</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.07783461869607</v>
+        <v>25.00668710350229</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.13095368350722</v>
+        <v>5.260659255440519</v>
       </c>
       <c r="D9">
-        <v>8.538114925744731</v>
+        <v>9.339352729403515</v>
       </c>
       <c r="E9">
-        <v>12.19661490853291</v>
+        <v>13.84442591098164</v>
       </c>
       <c r="F9">
-        <v>23.17594807451296</v>
+        <v>32.8627774812246</v>
       </c>
       <c r="G9">
-        <v>2.065616313490342</v>
+        <v>3.652016876501484</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.585491233707696</v>
+        <v>9.928586846664809</v>
       </c>
       <c r="K9">
-        <v>27.88613122038684</v>
+        <v>19.07081393553876</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.13707905040386</v>
+        <v>24.67073398291707</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.902703883556494</v>
+        <v>5.543117735967822</v>
       </c>
       <c r="D10">
-        <v>9.160752498049352</v>
+        <v>9.485926335229905</v>
       </c>
       <c r="E10">
-        <v>13.04040615161216</v>
+        <v>13.99371153109783</v>
       </c>
       <c r="F10">
-        <v>24.14194855433256</v>
+        <v>32.72447292377322</v>
       </c>
       <c r="G10">
-        <v>2.053497193856877</v>
+        <v>3.64800809603376</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.810999268285459</v>
+        <v>9.925265249519514</v>
       </c>
       <c r="K10">
-        <v>30.37668497918597</v>
+        <v>20.13835958286496</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.35266307847619</v>
+        <v>24.46341203797078</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.237886709563641</v>
+        <v>5.668271961069204</v>
       </c>
       <c r="D11">
-        <v>9.433991072509755</v>
+        <v>9.552855370451514</v>
       </c>
       <c r="E11">
-        <v>13.41573685365745</v>
+        <v>14.06377916599529</v>
       </c>
       <c r="F11">
-        <v>24.6217169368013</v>
+        <v>32.67387858525831</v>
       </c>
       <c r="G11">
-        <v>2.048058379951824</v>
+        <v>3.646267842190086</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.917010770139581</v>
+        <v>9.925550467838756</v>
       </c>
       <c r="K11">
-        <v>31.45246561198659</v>
+        <v>20.6057005986726</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.49329828877198</v>
+        <v>24.3778031677684</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.362585991796884</v>
+        <v>5.715138505885783</v>
       </c>
       <c r="D12">
-        <v>9.535998514340163</v>
+        <v>9.57821905980531</v>
       </c>
       <c r="E12">
-        <v>13.5565963538054</v>
+        <v>14.09060496738707</v>
       </c>
       <c r="F12">
-        <v>24.80930070061738</v>
+        <v>32.65650539422367</v>
       </c>
       <c r="G12">
-        <v>2.046007675598609</v>
+        <v>3.645620767995213</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.957648426310422</v>
+        <v>9.925916343610194</v>
       </c>
       <c r="K12">
-        <v>31.85174962832508</v>
+        <v>20.77992125378159</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.55306783116519</v>
+        <v>24.34664767425145</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.335827862753074</v>
+        <v>5.705069066962375</v>
       </c>
       <c r="D13">
-        <v>9.514094670962633</v>
+        <v>9.572755956686605</v>
       </c>
       <c r="E13">
-        <v>13.52631674541563</v>
+        <v>14.08481481575103</v>
       </c>
       <c r="F13">
-        <v>24.76863690250763</v>
+        <v>32.66016738542265</v>
       </c>
       <c r="G13">
-        <v>2.046448968335568</v>
+        <v>3.645759597789268</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.948874394854496</v>
+        <v>9.925826085008902</v>
       </c>
       <c r="K13">
-        <v>31.76611429711141</v>
+        <v>20.74252383522916</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.53989972393009</v>
+        <v>24.35330122731838</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.248190085737933</v>
+        <v>5.6721385033209</v>
       </c>
       <c r="D14">
-        <v>9.442412684154164</v>
+        <v>9.554941770987764</v>
       </c>
       <c r="E14">
-        <v>13.42735109556338</v>
+        <v>14.06598037616885</v>
       </c>
       <c r="F14">
-        <v>24.63703062239689</v>
+        <v>32.6724134156669</v>
       </c>
       <c r="G14">
-        <v>2.047889500787218</v>
+        <v>3.646214368439254</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.920344152264861</v>
+        <v>9.92557540345036</v>
       </c>
       <c r="K14">
-        <v>31.48547630612592</v>
+        <v>20.6200896111809</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.49808286415411</v>
+        <v>24.37521461498207</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.194221153154309</v>
+        <v>5.651897702231847</v>
       </c>
       <c r="D15">
-        <v>9.398314480679391</v>
+        <v>9.544032051126534</v>
       </c>
       <c r="E15">
-        <v>13.36656535512874</v>
+        <v>14.05448133122287</v>
       </c>
       <c r="F15">
-        <v>24.5571901101694</v>
+        <v>32.6801474246742</v>
       </c>
       <c r="G15">
-        <v>2.048772965066395</v>
+        <v>3.646494479290009</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.902932877295711</v>
+        <v>9.925455421229916</v>
       </c>
       <c r="K15">
-        <v>31.31252787252422</v>
+        <v>20.54473350769399</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.47332833032374</v>
+        <v>24.38880197696864</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.880484002602415</v>
+        <v>5.534867337760269</v>
       </c>
       <c r="D16">
-        <v>9.142692149707061</v>
+        <v>9.481555970360837</v>
       </c>
       <c r="E16">
-        <v>13.0157017127682</v>
+        <v>13.9891743682202</v>
       </c>
       <c r="F16">
-        <v>24.11141543253314</v>
+        <v>32.72802853595638</v>
       </c>
       <c r="G16">
-        <v>2.053853975216259</v>
+        <v>3.648123497577645</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.804140115270382</v>
+        <v>9.925282721030358</v>
       </c>
       <c r="K16">
-        <v>30.30524057175081</v>
+        <v>20.10743896389541</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.34436301731593</v>
+        <v>24.46918286529985</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.683986528280267</v>
+        <v>5.462183225966606</v>
       </c>
       <c r="D17">
-        <v>8.983293715910861</v>
+        <v>9.443281248577463</v>
       </c>
       <c r="E17">
-        <v>12.79823862682999</v>
+        <v>13.94965083689505</v>
       </c>
       <c r="F17">
-        <v>23.84835580539004</v>
+        <v>32.76056806097219</v>
       </c>
       <c r="G17">
-        <v>2.056988780795833</v>
+        <v>3.649144151807302</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.74441125854677</v>
+        <v>9.925636569398202</v>
       </c>
       <c r="K17">
-        <v>29.67274715308607</v>
+        <v>19.83439675584778</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.2764375810545</v>
+        <v>24.52073095871918</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.569467044698465</v>
+        <v>5.420065540779516</v>
       </c>
       <c r="D18">
-        <v>8.89067113647782</v>
+        <v>9.421291377964867</v>
       </c>
       <c r="E18">
-        <v>12.6723596576848</v>
+        <v>13.92712203961552</v>
       </c>
       <c r="F18">
-        <v>23.70084152424464</v>
+        <v>32.78044287515694</v>
       </c>
       <c r="G18">
-        <v>2.05879894350753</v>
+        <v>3.649739055267031</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.710379167599035</v>
+        <v>9.926009196649222</v>
       </c>
       <c r="K18">
-        <v>29.30356266601369</v>
+        <v>19.67563459926921</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.2413532369396</v>
+        <v>24.55119854197805</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.530433502321486</v>
+        <v>5.405753191677012</v>
       </c>
       <c r="D19">
-        <v>8.859150048328109</v>
+        <v>9.413850757159087</v>
       </c>
       <c r="E19">
-        <v>12.62960353070846</v>
+        <v>13.91952975217727</v>
       </c>
       <c r="F19">
-        <v>23.65154335532594</v>
+        <v>32.78737075174886</v>
       </c>
       <c r="G19">
-        <v>2.059413106625543</v>
+        <v>3.649941829613085</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.698911877237757</v>
+        <v>9.926164416364362</v>
       </c>
       <c r="K19">
-        <v>29.17763335850707</v>
+        <v>19.62158978348779</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.23014618887649</v>
+        <v>24.56165457531961</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.705058788312627</v>
+        <v>5.469953189532563</v>
       </c>
       <c r="D20">
-        <v>9.000359530402401</v>
+        <v>9.447353222158382</v>
       </c>
       <c r="E20">
-        <v>12.82147113051303</v>
+        <v>13.95383718623765</v>
       </c>
       <c r="F20">
-        <v>23.87596583132768</v>
+        <v>32.75698412227514</v>
       </c>
       <c r="G20">
-        <v>2.056654352652509</v>
+        <v>3.649034689433297</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.750736137580339</v>
+        <v>9.925581402790048</v>
       </c>
       <c r="K20">
-        <v>29.74063417760783</v>
+        <v>19.86364104197167</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.28325303219782</v>
+        <v>24.5151587847488</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.273991390401454</v>
+        <v>5.681825647008546</v>
       </c>
       <c r="D21">
-        <v>9.463507234793552</v>
+        <v>9.560173846229015</v>
       </c>
       <c r="E21">
-        <v>13.45645444205131</v>
+        <v>14.07150470506023</v>
       </c>
       <c r="F21">
-        <v>24.67552548504516</v>
+        <v>32.66876788702755</v>
       </c>
       <c r="G21">
-        <v>2.047466156450917</v>
+        <v>3.646080468227802</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.928710766085404</v>
+        <v>9.925642040206659</v>
       </c>
       <c r="K21">
-        <v>31.56812496411543</v>
+        <v>20.65612706236585</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.51018570962645</v>
+        <v>24.36874376182269</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.632869710247228</v>
+        <v>5.817208867736066</v>
       </c>
       <c r="D22">
-        <v>9.757675727454068</v>
+        <v>9.634012219045671</v>
       </c>
       <c r="E22">
-        <v>13.86404234832621</v>
+        <v>14.15010494002865</v>
       </c>
       <c r="F22">
-        <v>25.23255365242649</v>
+        <v>32.6215282176645</v>
       </c>
       <c r="G22">
-        <v>2.041511792958106</v>
+        <v>3.64421917552344</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.047905902819982</v>
+        <v>9.927184446087553</v>
       </c>
       <c r="K22">
-        <v>32.7154052761537</v>
+        <v>21.1579811639151</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.69662968328705</v>
+        <v>24.28041847591739</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.442494580967386</v>
+        <v>5.745248893110666</v>
       </c>
       <c r="D23">
-        <v>9.601457492115509</v>
+        <v>9.594599437195328</v>
       </c>
       <c r="E23">
-        <v>13.6471930756715</v>
+        <v>14.1080050609977</v>
       </c>
       <c r="F23">
-        <v>24.93206973703967</v>
+        <v>32.6457835892232</v>
       </c>
       <c r="G23">
-        <v>2.044685759506611</v>
+        <v>3.645206248094084</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.984024846121471</v>
+        <v>9.926223904209127</v>
       </c>
       <c r="K23">
-        <v>32.10734264655082</v>
+        <v>20.89163947123648</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.59350973895918</v>
+        <v>24.32688167874613</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.695536853238467</v>
+        <v>5.466441415258419</v>
       </c>
       <c r="D24">
-        <v>8.992647133374561</v>
+        <v>9.445512235596629</v>
       </c>
       <c r="E24">
-        <v>12.81097037983531</v>
+        <v>13.95194393271576</v>
       </c>
       <c r="F24">
-        <v>23.86347175285411</v>
+        <v>32.75860078551246</v>
       </c>
       <c r="G24">
-        <v>2.056805522807529</v>
+        <v>3.649084152086479</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.747875704083936</v>
+        <v>9.925605816552006</v>
       </c>
       <c r="K24">
-        <v>29.70995976815214</v>
+        <v>19.85042525559416</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.28015944092006</v>
+        <v>24.5176753740212</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.832294361406021</v>
+        <v>5.154023060627293</v>
       </c>
       <c r="D25">
-        <v>8.300178902739489</v>
+        <v>9.285712484793837</v>
       </c>
       <c r="E25">
-        <v>11.87875010234102</v>
+        <v>13.79147453579053</v>
       </c>
       <c r="F25">
-        <v>22.85517351359805</v>
+        <v>32.92453538994147</v>
       </c>
       <c r="G25">
-        <v>2.070156353872867</v>
+        <v>3.653567502841268</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.505492051210345</v>
+        <v>9.931404732119876</v>
       </c>
       <c r="K25">
-        <v>26.91742753366066</v>
+        <v>18.66236352704335</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.09266289181242</v>
+        <v>24.754724580055</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_225/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_225/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.915919409345647</v>
+        <v>7.145139423914454</v>
       </c>
       <c r="D2">
-        <v>9.169527626918649</v>
+        <v>7.760995507182773</v>
       </c>
       <c r="E2">
-        <v>13.68066547526212</v>
+        <v>11.16901569153861</v>
       </c>
       <c r="F2">
-        <v>33.0841991395868</v>
+        <v>22.23176760977259</v>
       </c>
       <c r="G2">
-        <v>3.657129963734116</v>
+        <v>2.080286998667102</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.941241086588521</v>
+        <v>6.337666388389867</v>
       </c>
       <c r="K2">
-        <v>17.73700119242937</v>
+        <v>24.67888297628286</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.95574771454122</v>
+        <v>15.06813292469617</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.750707899966622</v>
+        <v>6.646322006881822</v>
       </c>
       <c r="D3">
-        <v>9.092012421453571</v>
+        <v>7.378474780625812</v>
       </c>
       <c r="E3">
-        <v>13.61042338607188</v>
+        <v>10.67549443251962</v>
       </c>
       <c r="F3">
-        <v>33.21547950151452</v>
+        <v>21.88007241964162</v>
       </c>
       <c r="G3">
-        <v>3.659708854907774</v>
+        <v>2.087367561058521</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.951379488853087</v>
+        <v>6.230609789515209</v>
       </c>
       <c r="K3">
-        <v>17.08162149285088</v>
+        <v>23.04588424786962</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.10830927973124</v>
+        <v>15.11374879180903</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.647826968361152</v>
+        <v>6.323404231068222</v>
       </c>
       <c r="D4">
-        <v>9.045122793239628</v>
+        <v>7.135719518130693</v>
       </c>
       <c r="E4">
-        <v>13.56977425430711</v>
+        <v>10.3671962262168</v>
       </c>
       <c r="F4">
-        <v>33.30735863069133</v>
+        <v>21.69758845767078</v>
       </c>
       <c r="G4">
-        <v>3.661373982513858</v>
+        <v>2.091829330058318</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.959316335422155</v>
+        <v>6.1681859822697</v>
       </c>
       <c r="K4">
-        <v>16.66660771826491</v>
+        <v>21.98542073766517</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.20997124965395</v>
+        <v>15.16952346240902</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.605615247610249</v>
+        <v>6.187585270933099</v>
       </c>
       <c r="D5">
-        <v>9.026207434453118</v>
+        <v>7.034915330152888</v>
       </c>
       <c r="E5">
-        <v>13.55384539326437</v>
+        <v>10.24039832310052</v>
       </c>
       <c r="F5">
-        <v>33.34761792905387</v>
+        <v>21.6313854018573</v>
       </c>
       <c r="G5">
-        <v>3.662073143693813</v>
+        <v>2.09367740655889</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.962980967987116</v>
+        <v>6.143581771431094</v>
       </c>
       <c r="K5">
-        <v>16.49454223247431</v>
+        <v>21.5386603902694</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.25339847164798</v>
+        <v>15.19879634408883</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.598591005012123</v>
+        <v>6.164776093635044</v>
       </c>
       <c r="D6">
-        <v>9.023078622180794</v>
+        <v>7.018066765729432</v>
       </c>
       <c r="E6">
-        <v>13.55123917612368</v>
+        <v>10.21927853490538</v>
       </c>
       <c r="F6">
-        <v>33.35447264213537</v>
+        <v>21.62087722308212</v>
       </c>
       <c r="G6">
-        <v>3.662190485601744</v>
+        <v>2.093986114212992</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.963615460262547</v>
+        <v>6.139546656864285</v>
       </c>
       <c r="K6">
-        <v>16.46580017710194</v>
+        <v>21.46359146439894</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.26072999165884</v>
+        <v>15.20403960622336</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.647258744366158</v>
+        <v>6.321589700965377</v>
       </c>
       <c r="D7">
-        <v>9.044866894563441</v>
+        <v>7.134367496340871</v>
       </c>
       <c r="E7">
-        <v>13.56955684124521</v>
+        <v>10.36549066610904</v>
       </c>
       <c r="F7">
-        <v>33.30789019514409</v>
+        <v>21.69666293851578</v>
       </c>
       <c r="G7">
-        <v>3.661383328112728</v>
+        <v>2.091854131471692</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.959364015936201</v>
+        <v>6.167850783084676</v>
       </c>
       <c r="K7">
-        <v>16.66429878596729</v>
+        <v>21.97945483667656</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.21054884266686</v>
+        <v>15.16989232552202</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.859296850483752</v>
+        <v>6.976575088578936</v>
       </c>
       <c r="D8">
-        <v>9.142663307536976</v>
+        <v>7.63079532713772</v>
       </c>
       <c r="E8">
-        <v>13.65593903580909</v>
+        <v>11.00003430444901</v>
       </c>
       <c r="F8">
-        <v>33.12711512788927</v>
+        <v>22.10341817032441</v>
       </c>
       <c r="G8">
-        <v>3.658002255119725</v>
+        <v>2.08270536319882</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.944381456768554</v>
+        <v>6.300067867007905</v>
       </c>
       <c r="K8">
-        <v>17.51377135775846</v>
+        <v>24.12776938067535</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.00668710350229</v>
+        <v>15.07783461869596</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.260659255440519</v>
+        <v>8.13095368350732</v>
       </c>
       <c r="D9">
-        <v>9.339352729403515</v>
+        <v>8.538114925744692</v>
       </c>
       <c r="E9">
-        <v>13.84442591098164</v>
+        <v>12.19661490853285</v>
       </c>
       <c r="F9">
-        <v>32.8627774812246</v>
+        <v>23.17594807451286</v>
       </c>
       <c r="G9">
-        <v>3.652016876501484</v>
+        <v>2.065616313490477</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.928586846664809</v>
+        <v>6.585491233707649</v>
       </c>
       <c r="K9">
-        <v>19.07081393553876</v>
+        <v>27.88613122038683</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.67073398291707</v>
+        <v>15.13707905040381</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.543117735967822</v>
+        <v>8.902703883556546</v>
       </c>
       <c r="D10">
-        <v>9.485926335229905</v>
+        <v>9.160752498049314</v>
       </c>
       <c r="E10">
-        <v>13.99371153109783</v>
+        <v>13.04040615161219</v>
       </c>
       <c r="F10">
-        <v>32.72447292377322</v>
+        <v>24.14194855433252</v>
       </c>
       <c r="G10">
-        <v>3.64800809603376</v>
+        <v>2.05349719385701</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.925265249519514</v>
+        <v>6.810999268285478</v>
       </c>
       <c r="K10">
-        <v>20.13835958286496</v>
+        <v>30.37668497918597</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.46341203797078</v>
+        <v>15.35266307847614</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.668271961069204</v>
+        <v>9.237886709563597</v>
       </c>
       <c r="D11">
-        <v>9.552855370451514</v>
+        <v>9.433991072509778</v>
       </c>
       <c r="E11">
-        <v>14.06377916599529</v>
+        <v>13.41573685365745</v>
       </c>
       <c r="F11">
-        <v>32.67387858525831</v>
+        <v>24.62171693680126</v>
       </c>
       <c r="G11">
-        <v>3.646267842190086</v>
+        <v>2.048058379952091</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.925550467838756</v>
+        <v>6.917010770139558</v>
       </c>
       <c r="K11">
-        <v>20.6057005986726</v>
+        <v>31.45246561198663</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.3778031677684</v>
+        <v>15.4932982887719</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.715138505885783</v>
+        <v>9.362585991797028</v>
       </c>
       <c r="D12">
-        <v>9.57821905980531</v>
+        <v>9.53599851434015</v>
       </c>
       <c r="E12">
-        <v>14.09060496738707</v>
+        <v>13.55659635380539</v>
       </c>
       <c r="F12">
-        <v>32.65650539422367</v>
+        <v>24.80930070061736</v>
       </c>
       <c r="G12">
-        <v>3.645620767995213</v>
+        <v>2.046007675598612</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.925916343610194</v>
+        <v>6.957648426310394</v>
       </c>
       <c r="K12">
-        <v>20.77992125378159</v>
+        <v>31.85174962832506</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>24.34664767425145</v>
+        <v>15.55306783116519</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.705069066962375</v>
+        <v>9.33582786275305</v>
       </c>
       <c r="D13">
-        <v>9.572755956686605</v>
+        <v>9.514094670962594</v>
       </c>
       <c r="E13">
-        <v>14.08481481575103</v>
+        <v>13.52631674541565</v>
       </c>
       <c r="F13">
-        <v>32.66016738542265</v>
+        <v>24.76863690250756</v>
       </c>
       <c r="G13">
-        <v>3.645759597789268</v>
+        <v>2.046448968335701</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.925826085008902</v>
+        <v>6.948874394854538</v>
       </c>
       <c r="K13">
-        <v>20.74252383522916</v>
+        <v>31.76611429711145</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>24.35330122731838</v>
+        <v>15.53989972393002</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.6721385033209</v>
+        <v>9.248190085737814</v>
       </c>
       <c r="D14">
-        <v>9.554941770987764</v>
+        <v>9.442412684154178</v>
       </c>
       <c r="E14">
-        <v>14.06598037616885</v>
+        <v>13.42735109556337</v>
       </c>
       <c r="F14">
-        <v>32.6724134156669</v>
+        <v>24.63703062239691</v>
       </c>
       <c r="G14">
-        <v>3.646214368439254</v>
+        <v>2.047889500787216</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.92557540345036</v>
+        <v>6.920344152264867</v>
       </c>
       <c r="K14">
-        <v>20.6200896111809</v>
+        <v>31.48547630612595</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.37521461498207</v>
+        <v>15.4980828641541</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.651897702231847</v>
+        <v>9.194221153154244</v>
       </c>
       <c r="D15">
-        <v>9.544032051126534</v>
+        <v>9.39831448067941</v>
       </c>
       <c r="E15">
-        <v>14.05448133122287</v>
+        <v>13.36656535512877</v>
       </c>
       <c r="F15">
-        <v>32.6801474246742</v>
+        <v>24.55719011016937</v>
       </c>
       <c r="G15">
-        <v>3.646494479290009</v>
+        <v>2.048772965066529</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.925455421229916</v>
+        <v>6.902932877295717</v>
       </c>
       <c r="K15">
-        <v>20.54473350769399</v>
+        <v>31.31252787252428</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.38880197696864</v>
+        <v>15.47332833032368</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.534867337760269</v>
+        <v>8.880484002602399</v>
       </c>
       <c r="D16">
-        <v>9.481555970360837</v>
+        <v>9.142692149707061</v>
       </c>
       <c r="E16">
-        <v>13.9891743682202</v>
+        <v>13.01570171276823</v>
       </c>
       <c r="F16">
-        <v>32.72802853595638</v>
+        <v>24.1114154325331</v>
       </c>
       <c r="G16">
-        <v>3.648123497577645</v>
+        <v>2.053853975216394</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.925282721030358</v>
+        <v>6.804140115270401</v>
       </c>
       <c r="K16">
-        <v>20.10743896389541</v>
+        <v>30.30524057175088</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.46918286529985</v>
+        <v>15.34436301731584</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.462183225966606</v>
+        <v>8.683986528280268</v>
       </c>
       <c r="D17">
-        <v>9.443281248577463</v>
+        <v>8.983293715910884</v>
       </c>
       <c r="E17">
-        <v>13.94965083689505</v>
+        <v>12.79823862683002</v>
       </c>
       <c r="F17">
-        <v>32.76056806097219</v>
+        <v>23.84835580539</v>
       </c>
       <c r="G17">
-        <v>3.649144151807302</v>
+        <v>2.056988780795431</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.925636569398202</v>
+        <v>6.744411258546773</v>
       </c>
       <c r="K17">
-        <v>19.83439675584778</v>
+        <v>29.67274715308611</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.52073095871918</v>
+        <v>15.27643758105445</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.420065540779516</v>
+        <v>8.569467044698539</v>
       </c>
       <c r="D18">
-        <v>9.421291377964867</v>
+        <v>8.890671136477847</v>
       </c>
       <c r="E18">
-        <v>13.92712203961552</v>
+        <v>12.67235965768477</v>
       </c>
       <c r="F18">
-        <v>32.78044287515694</v>
+        <v>23.70084152424472</v>
       </c>
       <c r="G18">
-        <v>3.649739055267031</v>
+        <v>2.05879894350753</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.926009196649222</v>
+        <v>6.710379167598993</v>
       </c>
       <c r="K18">
-        <v>19.67563459926921</v>
+        <v>29.30356266601368</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.55119854197805</v>
+        <v>15.24135323693965</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.405753191677012</v>
+        <v>8.530433502321451</v>
       </c>
       <c r="D19">
-        <v>9.413850757159087</v>
+        <v>8.859150048328072</v>
       </c>
       <c r="E19">
-        <v>13.91952975217727</v>
+        <v>12.62960353070844</v>
       </c>
       <c r="F19">
-        <v>32.78737075174886</v>
+        <v>23.65154335532592</v>
       </c>
       <c r="G19">
-        <v>3.649941829613085</v>
+        <v>2.059413106625677</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.926164416364362</v>
+        <v>6.698911877237778</v>
       </c>
       <c r="K19">
-        <v>19.62158978348779</v>
+        <v>29.17763335850709</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.56165457531961</v>
+        <v>15.23014618887646</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.469953189532563</v>
+        <v>8.705058788312661</v>
       </c>
       <c r="D20">
-        <v>9.447353222158382</v>
+        <v>9.000359530402417</v>
       </c>
       <c r="E20">
-        <v>13.95383718623765</v>
+        <v>12.82147113051305</v>
       </c>
       <c r="F20">
-        <v>32.75698412227514</v>
+        <v>23.87596583132766</v>
       </c>
       <c r="G20">
-        <v>3.649034689433297</v>
+        <v>2.056654352652776</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.925581402790048</v>
+        <v>6.75073613758031</v>
       </c>
       <c r="K20">
-        <v>19.86364104197167</v>
+        <v>29.74063417760784</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.5151587847488</v>
+        <v>15.28325303219777</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.681825647008546</v>
+        <v>9.273991390401536</v>
       </c>
       <c r="D21">
-        <v>9.560173846229015</v>
+        <v>9.463507234793548</v>
       </c>
       <c r="E21">
-        <v>14.07150470506023</v>
+        <v>13.45645444205131</v>
       </c>
       <c r="F21">
-        <v>32.66876788702755</v>
+        <v>24.67552548504517</v>
       </c>
       <c r="G21">
-        <v>3.646080468227802</v>
+        <v>2.047466156450917</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.925642040206659</v>
+        <v>6.928710766085409</v>
       </c>
       <c r="K21">
-        <v>20.65612706236585</v>
+        <v>31.56812496411543</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.36874376182269</v>
+        <v>15.51018570962647</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.817208867736066</v>
+        <v>9.63286971024729</v>
       </c>
       <c r="D22">
-        <v>9.634012219045671</v>
+        <v>9.757675727454068</v>
       </c>
       <c r="E22">
-        <v>14.15010494002865</v>
+        <v>13.8640423483262</v>
       </c>
       <c r="F22">
-        <v>32.6215282176645</v>
+        <v>25.23255365242649</v>
       </c>
       <c r="G22">
-        <v>3.64421917552344</v>
+        <v>2.041511792957973</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.927184446087553</v>
+        <v>7.047905902819997</v>
       </c>
       <c r="K22">
-        <v>21.1579811639151</v>
+        <v>32.71540527615377</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.28041847591739</v>
+        <v>15.696629683287</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.745248893110666</v>
+        <v>9.442494580967395</v>
       </c>
       <c r="D23">
-        <v>9.594599437195328</v>
+        <v>9.601457492115536</v>
       </c>
       <c r="E23">
-        <v>14.1080050609977</v>
+        <v>13.64719307567152</v>
       </c>
       <c r="F23">
-        <v>32.6457835892232</v>
+        <v>24.93206973703959</v>
       </c>
       <c r="G23">
-        <v>3.645206248094084</v>
+        <v>2.044685759506476</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.926223904209127</v>
+        <v>6.984024846121445</v>
       </c>
       <c r="K23">
-        <v>20.89163947123648</v>
+        <v>32.10734264655085</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24.32688167874613</v>
+        <v>15.59350973895909</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.466441415258419</v>
+        <v>8.695536853238362</v>
       </c>
       <c r="D24">
-        <v>9.445512235596629</v>
+        <v>8.992647133374518</v>
       </c>
       <c r="E24">
-        <v>13.95194393271576</v>
+        <v>12.81097037983529</v>
       </c>
       <c r="F24">
-        <v>32.75860078551246</v>
+        <v>23.86347175285409</v>
       </c>
       <c r="G24">
-        <v>3.649084152086479</v>
+        <v>2.056805522807663</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.925605816552006</v>
+        <v>6.747875704083962</v>
       </c>
       <c r="K24">
-        <v>19.85042525559416</v>
+        <v>29.70995976815217</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.5176753740212</v>
+        <v>15.28015944092006</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.154023060627293</v>
+        <v>7.832294361406077</v>
       </c>
       <c r="D25">
-        <v>9.285712484793837</v>
+        <v>8.3001789027395</v>
       </c>
       <c r="E25">
-        <v>13.79147453579053</v>
+        <v>11.87875010234104</v>
       </c>
       <c r="F25">
-        <v>32.92453538994147</v>
+        <v>22.85517351359795</v>
       </c>
       <c r="G25">
-        <v>3.653567502841268</v>
+        <v>2.070156353872867</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.931404732119876</v>
+        <v>6.505492051210343</v>
       </c>
       <c r="K25">
-        <v>18.66236352704335</v>
+        <v>26.9174275336607</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.754724580055</v>
+        <v>15.09266289181229</v>
       </c>
     </row>
   </sheetData>
